--- a/wash_P/ETH.xlsx
+++ b/wash_P/ETH.xlsx
@@ -74851,7 +74851,7 @@
         <v>0</v>
       </c>
       <c r="EB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC24" t="n">
         <v>0</v>
@@ -77979,7 +77979,7 @@
         <v>0</v>
       </c>
       <c r="EB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC25" t="n">
         <v>0</v>
@@ -84295,7 +84295,7 @@
         <v>0</v>
       </c>
       <c r="EV27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW27" t="n">
         <v>0</v>
